--- a/Programming log .xlsx
+++ b/Programming log .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackH99\Desktop\Uni Year 2\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B70E918-A4C7-44B8-9A65-A710C52784E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D598D89-D505-403D-A611-BCB097264C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1628D4C3-B896-40DC-BCE9-D9886A538877}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Start</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Making scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding player and ridgidbody and starting script </t>
+  </si>
+  <si>
+    <t>making player script</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Making movement code and camera follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding scripts </t>
+  </si>
+  <si>
+    <t>Coding Jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting scene up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding endless movement and respawn, adding to player and setting movement speed. </t>
   </si>
 </sst>
 </file>
@@ -84,8 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EEC771-44CB-4628-B18A-89FFC0D74B06}">
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +441,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,6 +456,180 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E7">
+        <v>0.03</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E8">
+        <v>0.44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E13">
+        <v>0.35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E16">
+        <v>0.45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Programming log .xlsx
+++ b/Programming log .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackH99\Desktop\Uni Year 2\Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D598D89-D505-403D-A611-BCB097264C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56907B-322A-4043-9D84-7B1567888BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1628D4C3-B896-40DC-BCE9-D9886A538877}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Start</t>
   </si>
@@ -76,14 +76,41 @@
   </si>
   <si>
     <t xml:space="preserve">Adding endless movement and respawn, adding to player and setting movement speed. </t>
+  </si>
+  <si>
+    <t>10/11/2020  Project 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting up project. </t>
+  </si>
+  <si>
+    <t>writing tutorial</t>
+  </si>
+  <si>
+    <t>Coding player movement and camera follow script</t>
+  </si>
+  <si>
+    <t>writing and adding shooting script and adding emitter</t>
+  </si>
+  <si>
+    <t>making bullet and enemy disapear on collision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,10 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,32 +460,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EEC771-44CB-4628-B18A-89FFC0D74B06}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -557,6 +588,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44124</v>
+      </c>
       <c r="B10" s="2">
         <v>0.47569444444444442</v>
       </c>
@@ -568,6 +602,23 @@
       </c>
       <c r="F10" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,6 +639,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44131</v>
+      </c>
       <c r="B13" s="2">
         <v>0.52430555555555558</v>
       </c>
@@ -599,6 +653,23 @@
       </c>
       <c r="F13" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,6 +690,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44138</v>
+      </c>
       <c r="B16" s="2">
         <v>0.43402777777777773</v>
       </c>
@@ -632,7 +706,101 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44152</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>